--- a/data/trans_bre/P7A_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P7A_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>7,8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>2,43</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>20,91%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>14,59%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>9,06%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>8,62%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13,39%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>20,26%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,58%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 12,24</t>
+          <t>1,87; 12,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 11,32</t>
+          <t>-0,13; 11,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 9,21</t>
+          <t>-2,76; 8,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 11,37</t>
+          <t>-1,0; 10,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 7,94</t>
+          <t>1,55; 14,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 38,45</t>
+          <t>-2,57; 7,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 34,74</t>
+          <t>-4,11; 6,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 28,28</t>
+          <t>4,93; 40,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 36,42</t>
+          <t>-0,38; 33,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 22,5</t>
+          <t>-7,23; 24,85</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 32,36</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3,71; 43,94</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-6,69; 23,15</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-9,81; 18,15</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>-3,02</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>2,13</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,42%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>10,75</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7,11%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-7,72%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,67%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>40,08%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 6,51</t>
+          <t>-6,14; 5,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 9,5</t>
+          <t>-4,7; 8,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 6,8</t>
+          <t>-5,04; 7,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 7,69</t>
+          <t>-3,17; 8,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 11,39</t>
+          <t>-10,2; 4,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 20,47</t>
+          <t>-7,47; 11,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 34,52</t>
+          <t>1,29; 19,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 23,76</t>
+          <t>-15,59; 17,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 26,53</t>
+          <t>-13,52; 29,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 39,32</t>
+          <t>-14,52; 23,75</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-9,18; 29,85</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-24,21; 12,79</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-20,8; 44,52</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>5,88; 84,85</t>
         </is>
       </c>
     </row>
@@ -876,50 +988,70 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>6,58</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>9,36%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>14,34%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>6,1%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-9,09%</t>
+          <t>24,5%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-9,52%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15,48%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 15,08</t>
+          <t>-8,26; 16,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 18,84</t>
+          <t>-3,52; 23,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 13,99</t>
+          <t>-9,79; 12,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 8,26</t>
+          <t>-17,35; 7,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-8,34; 22,4</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-20,95; 49,17</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 58,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 42,05</t>
+          <t>-18,66; 55,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 22,7</t>
+          <t>-7,6; 82,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-21,74; 38,76</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-32,89; 19,17</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-15,95; 66,69</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>2,5</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3,44</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>11,24%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>13,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,25%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8,78%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,89%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9,56%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 8,38</t>
+          <t>-0,09; 7,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 8,55</t>
+          <t>0,71; 8,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 6,35</t>
+          <t>-1,43; 6,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 6,3</t>
+          <t>-1,25; 6,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 6,34</t>
+          <t>-1,28; 8,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 25,2</t>
+          <t>-1,78; 7,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 25,87</t>
+          <t>-1,25; 7,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 19,47</t>
+          <t>-0,12; 23,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 19,48</t>
+          <t>1,96; 27,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 18,58</t>
+          <t>-3,86; 19,93</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-3,36; 18,94</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 22,24</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-4,77; 21,73</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-3,26; 22,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P7A_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P7A_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,12</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,23</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,07</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,51</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,8</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>20,91%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>14,36%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>8,62%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>13,39%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>20,26%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>6,46%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>2,58%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>7.122474816215613</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.987184714576648</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.189298888947861</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.422351895479992</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>7.787618444066297</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>2.432222907490273</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.020773734886982</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2090810268866227</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1388170333829717</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.09004678297775534</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.130247084804357</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.2018820017627827</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.064550375846694</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.02626566028126438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,87; 12,5</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 11,08</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,76; 8,15</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 10,07</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,55; 14,91</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 7,96</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-4,11; 6,49</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>4,93; 40,41</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-0,38; 33,77</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-7,23; 24,85</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 32,36</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>3,71; 43,94</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>-6,69; 23,15</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>-9,81; 18,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.86799528674535</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.5283390474751661</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.730340384287262</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.257625927396066</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>1.525337915262532</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-2.573429651758239</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-4.018644317932175</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.04927911959685741</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.01408315094604409</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.06944868323237632</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.03450921574072676</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.0363719474423953</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>-0.06685526756623839</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-0.09607620017405863</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.49764289343352</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.80113226031811</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.245699050529307</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>10.08794764450322</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>14.90314293406868</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>7.964790720743312</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>6.632890877005948</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.4041393346086227</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.3318836320646251</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.2518736754560223</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.3241990904239885</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.4397971088276507</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.2314644759770657</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.1839565866239197</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,68</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,29</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-3,02</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,13</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>10,75</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>5,31%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>3,03%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>7,11%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-7,72%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>6,67%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>40,08%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,14; 5,85</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,7; 8,11</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,04; 7,06</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,17; 8,81</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-10,2; 4,5</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-7,47; 11,92</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 19,06</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-15,59; 17,89</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-13,52; 29,44</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-14,52; 23,75</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-9,18; 29,85</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-24,21; 12,79</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>-20,8; 44,52</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>5,88; 84,85</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.145141551876693</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.709722614855149</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.181922490300463</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.495451179674557</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-3.164581132727928</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>2.131194181268781</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>10.81866467949791</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.004088522597480864</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1197597489920223</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.03723917287638948</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.07807620815240708</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.08138996657311839</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.06673214084903496</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.4045070585849639</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,53</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,39</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-4,38</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,58</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>9,36%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>24,5%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>6,05%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-9,52%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>15,48%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.144014747921708</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.048711737017337</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.999832725261459</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.970168430607983</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-10.40786927099843</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-7.473574345234186</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>1.561787573813576</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1558734080966795</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.08749874751341681</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1446890024452969</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.08697795680984773</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.2481327821716705</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-0.2080362548351598</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>0.04476745357697381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,26; 16,42</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,52; 23,25</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,79; 12,81</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-17,35; 7,48</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-8,34; 22,4</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-18,66; 55,99</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-7,6; 82,36</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-21,74; 38,76</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-32,89; 19,17</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-15,95; 66,69</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.849389602890454</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.9005528402843</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.474360293750099</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>9.109008222946244</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>4.029251274526491</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.92354639124389</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>19.2596461324921</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.1788955487135826</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.369850443923093</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.2585814637246411</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.3078350466153164</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.1194845288631406</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>0.4451817204795498</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.8511980547332442</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,94</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,23</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,57</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,45</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>3,44</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>11,24%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>12,64%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>6,45%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>7,43%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>8,78%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>6,89%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>9,56%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>3.525947529641288</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>6.911420724321504</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.244739222766434</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-3.966275089753752</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>6.630578272871956</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>0.09363619403964847</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1771854274845119</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.05717671777931287</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>-0.08751575669633392</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>0.1566445917509725</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,09; 7,65</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 8,93</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,43; 6,36</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,25; 6,18</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,28; 8,12</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 7,48</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-1,25; 7,79</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 23,38</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 27,89</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-3,86; 19,93</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; 18,94</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-3,17; 22,24</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>-4,77; 21,73</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>-3,26; 22,95</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.264514512495779</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.127596887453759</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.713981103649093</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-17.0837299502344</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-8.264757355596252</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.1865926169921636</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1571529371775829</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.2215962481252003</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.3267725495504059</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.1577931989724896</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>16.41654094203238</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>21.91995251659535</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.67594198994817</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.931921493013797</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>23.03735021426282</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>0.5598991034961793</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.7625888073298632</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.3774386016385529</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>0.2000029100150452</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>0.7259226601380662</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.942043335102813</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.762884863248695</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.361094509217371</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.669593650423829</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>3.399801026550691</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>2.50216371754815</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>3.465769402464097</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1123659707052995</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1387422136334061</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.06860697320187747</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.07726541736639755</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.08682236883562075</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.06892318433666834</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.09652333790482741</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.08719402610928707</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.5541606260512525</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.36721687040767</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.195329781802861</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-1.310692529753248</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-1.778101362062923</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-1.259792977028239</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.001241301919608214</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.0188723157731052</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.03786448072135992</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.03212116716538389</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.03289843439514371</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>-0.04767497873814172</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.03235356397161033</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.654925143751669</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.246941837029574</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.530666864895593</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.386240255631915</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>8.030001459139372</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>7.480352559651594</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>7.813488713482871</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2337947317985795</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2978003590175203</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.2004478223049547</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.1963850381366497</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.2230862099195295</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.2172574067897416</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.22982310850695</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
